--- a/Code/SampleRun_Environment_Solar/900Scens/Results_900.xlsx
+++ b/Code/SampleRun_Environment_Solar/900Scens/Results_900.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\900Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF190EFC-9493-4376-895B-9D2BA91529EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046ABE2-0F15-47F7-976C-4AD78197D911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Omega</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>tol05: -</t>
+  </si>
+  <si>
+    <t>Median of Naive Gap</t>
+  </si>
+  <si>
+    <t>tol 0.01</t>
+  </si>
+  <si>
+    <t>tol 0.03</t>
+  </si>
+  <si>
+    <t>tol 0.05</t>
+  </si>
+  <si>
+    <t>tol 0.07</t>
   </si>
 </sst>
 </file>
@@ -505,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,7 +1288,7 @@
         <v>244.01279</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>900</v>
       </c>
@@ -1318,7 +1333,7 @@
         <v>244.01279</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>900</v>
       </c>
@@ -1362,8 +1377,11 @@
       <c r="O18">
         <v>244.01279</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>900</v>
       </c>
@@ -1407,8 +1425,15 @@
       <c r="O19">
         <v>244.01279</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19">
+        <f>MEDIAN(H7,H13,H15,H25,H32,H38,H43,H47,H55,H62,H68,H73,H79,H85,H91,H97,H103,H109,H115,H121)</f>
+        <v>0.10566500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12</v>
       </c>
@@ -1455,8 +1480,15 @@
       <c r="O20">
         <v>240.83861999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20">
+        <f>MEDIAN(H127,H133,H140,H145,H151,H157,H164,H169,H175,H180,H187,H193,H199,H205,H211,H217,H223,H229,H235,H241)</f>
+        <v>0.14662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>900</v>
       </c>
@@ -1500,8 +1532,15 @@
       <c r="O21">
         <v>240.83861999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21">
+        <f>MEDIAN(H247,H253,H259,H265,H271,H277,H283,H289,H295,H301,H307,H313,H319,H325,H331,H337,H343,H349,H355,H361)</f>
+        <v>0.15856500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>900</v>
       </c>
@@ -1545,8 +1584,15 @@
       <c r="O22">
         <v>240.83861999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22">
+        <f>MEDIAN(H367,H373,H379,H385,H391,H397,H403,H409,H415,H421,H427,H433,H439,H445,H451,H457,H463,H469,H475,H481)</f>
+        <v>0.17801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>900</v>
       </c>
@@ -1591,7 +1637,7 @@
         <v>240.83861999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>900</v>
       </c>
@@ -1636,7 +1682,7 @@
         <v>240.83861999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>900</v>
       </c>
@@ -1681,7 +1727,7 @@
         <v>240.83861999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1729,7 +1775,7 @@
         <v>243.80645999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>900</v>
       </c>
@@ -1774,7 +1820,7 @@
         <v>243.80645999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>900</v>
       </c>
@@ -1819,7 +1865,7 @@
         <v>243.80645999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>900</v>
       </c>
@@ -1864,7 +1910,7 @@
         <v>243.80645999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>900</v>
       </c>
@@ -1909,7 +1955,7 @@
         <v>243.80645999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>900</v>
       </c>
@@ -1954,7 +2000,7 @@
         <v>243.80645999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>14</v>
       </c>
